--- a/local_search_method/reports/report.xlsx
+++ b/local_search_method/reports/report.xlsx
@@ -512,7 +512,7 @@
         <v>504.56</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002999305725097656</v>
+        <v>0.003999710083007812</v>
       </c>
     </row>
     <row r="3">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>504.72</v>
+        <v>514.8200000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>504.5</v>
+        <v>514.37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="F3" t="n">
-        <v>1009.22</v>
+        <v>1029.19</v>
       </c>
       <c r="G3" t="n">
-        <v>504.61</v>
+        <v>514.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03459596633911133</v>
+        <v>1.738211154937744</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         <v>546.3099999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003003120422363281</v>
+        <v>0.00300145149230957</v>
       </c>
     </row>
     <row r="5">
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>621.45</v>
+        <v>615.11</v>
       </c>
       <c r="D5" t="n">
-        <v>477.82</v>
+        <v>498.09</v>
       </c>
       <c r="E5" t="n">
-        <v>143.62</v>
+        <v>117.02</v>
       </c>
       <c r="F5" t="n">
-        <v>1099.27</v>
+        <v>1113.2</v>
       </c>
       <c r="G5" t="n">
-        <v>549.64</v>
+        <v>556.6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02474856376647949</v>
+        <v>1.819742202758789</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>540.9400000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006937742233276367</v>
+        <v>0.006998538970947266</v>
       </c>
     </row>
     <row r="7">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>543.36</v>
+        <v>553.48</v>
       </c>
       <c r="D7" t="n">
-        <v>537.65</v>
+        <v>552.11</v>
       </c>
       <c r="E7" t="n">
-        <v>5.71</v>
+        <v>1.37</v>
       </c>
       <c r="F7" t="n">
-        <v>1623.52</v>
+        <v>1657.93</v>
       </c>
       <c r="G7" t="n">
-        <v>541.17</v>
+        <v>552.64</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0297248363494873</v>
+        <v>3.860410213470459</v>
       </c>
     </row>
     <row r="8">
@@ -692,7 +692,7 @@
         <v>582.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006975412368774414</v>
+        <v>0.007999897003173828</v>
       </c>
     </row>
     <row r="9">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>624.45</v>
+        <v>626.42</v>
       </c>
       <c r="D9" t="n">
-        <v>508.42</v>
+        <v>546.37</v>
       </c>
       <c r="E9" t="n">
-        <v>116.03</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>1750.48</v>
+        <v>1798.08</v>
       </c>
       <c r="G9" t="n">
-        <v>583.49</v>
+        <v>599.36</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02581381797790527</v>
+        <v>4.177946090698242</v>
       </c>
     </row>
     <row r="10">
@@ -752,7 +752,7 @@
         <v>521.63</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01089596748352051</v>
+        <v>0.01200127601623535</v>
       </c>
     </row>
     <row r="11">
@@ -767,22 +767,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>525.25</v>
+        <v>535.9400000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>514.6</v>
+        <v>533.35</v>
       </c>
       <c r="E11" t="n">
-        <v>10.65</v>
+        <v>2.59</v>
       </c>
       <c r="F11" t="n">
-        <v>2088.12</v>
+        <v>2139.72</v>
       </c>
       <c r="G11" t="n">
-        <v>522.03</v>
+        <v>534.9299999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03757166862487793</v>
+        <v>6.572078227996826</v>
       </c>
     </row>
     <row r="12">
@@ -812,7 +812,7 @@
         <v>564.01</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01091694831848145</v>
+        <v>0.01400017738342285</v>
       </c>
     </row>
     <row r="13">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>667.9400000000001</v>
+        <v>677.87</v>
       </c>
       <c r="D13" t="n">
-        <v>460.67</v>
+        <v>471.38</v>
       </c>
       <c r="E13" t="n">
-        <v>207.27</v>
+        <v>206.49</v>
       </c>
       <c r="F13" t="n">
-        <v>2256.46</v>
+        <v>2335.17</v>
       </c>
       <c r="G13" t="n">
-        <v>564.11</v>
+        <v>583.79</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03759622573852539</v>
+        <v>7.893697261810303</v>
       </c>
     </row>
   </sheetData>
